--- a/university_managers.xlsx
+++ b/university_managers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,1171 +980,559 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Laura Casamento</t>
+          <t>Wade Lombard</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Chair</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jeffrey Gates</t>
+          <t>Clayton Watson</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Senior Vice President Of Student Life And Enrollment</t>
+          <t>Vice-Chair</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Todd Pfannestiel</t>
+          <t>Marty Baker</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Provost &amp; Senior Vice President For Academic Affairs</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Polly Smith</t>
+          <t>Emmitt Beall</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Senior Vice President For Market Innovation &amp; New Ventures/Associtae Provost For Oes</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ahmed Radwan</t>
+          <t>Eliezer Bonilla</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dean For Health And Professions</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pamela Salmon</t>
+          <t>Patricia Carroll</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Vice President Of Financial Affairs</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Robert Halliday</t>
+          <t>Ishmael Charles</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Associate Provost, Online Learning And Vice President Of Online And Extended Studies</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ashraf Elazzazi</t>
+          <t>Robert Daugherty</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Stephanie Nesbitt</t>
+          <t>Hector Diaz</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dean Of The School Of Business &amp; Justice</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Andrew Beakman</t>
+          <t>Ashley Freer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vice President Of Legal Affairs &amp; General Counsel</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Robert Brevenik</t>
+          <t>Bobby K Jones Ii</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chairperson</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jeremy Thurston</t>
+          <t>Michael Knight</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vice Chairperson/Chair-Elect</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Heidi Hoeller</t>
+          <t>Dennis Livingston</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Vice Chairperson</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Christian Meyer Iii</t>
+          <t>Jerry Madden</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Vice Chairperson</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kenneth Bell</t>
+          <t>Kevin Mcglamery</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Secretary</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Larry Bull</t>
+          <t>James Mcintyre</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gerard Capraro</t>
+          <t>Byron Medlin</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>John Casellini</t>
+          <t>David Ramirez</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ronald Cuccaro</t>
+          <t>Jeff Robinson</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Harry Cynkus</t>
+          <t>Matt Sharp</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Frederick Degen</t>
+          <t>Steve Smith</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Krista Diberadino</t>
+          <t>Lee Storms</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>James Duross</t>
+          <t>Kelvin Tarukwasha</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>John Forte</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Director</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marianne Gaige</t>
+          <t>Charles Paul Conn</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Chancellor</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Samuel Hester</t>
+          <t>Mark Walker</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>President</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Daniel Jones</t>
+          <t>Chris Conine</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Vice President For Business &amp; Finance</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wester Miga</t>
+          <t>Deborah Murray</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Provost</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mark Pilipczuk</t>
+          <t>Christopher Coulter</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Associate Professor English</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Eugene Quadraro Jr</t>
+          <t>Sara Campbell</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Dean, School Of Nursing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Solade Rowe</t>
+          <t>William Estes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Dean, College Of Education</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>John Snyder</t>
+          <t>Paul Delaluz</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Trustee</t>
+          <t>Chair, Dept Of Natural Sciences</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Utica University</t>
+          <t>Lee University</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Treesa Salter</t>
+          <t>Jayson Vanhook</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
-        <is>
-          <t>Trustee</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Utica University</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Mikhail Bushiniski</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Trustee</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Utica University</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Tanner Stewart</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Trustee</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Utica University</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Jeffery Whalley</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Trustee</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Wade Lombard</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Clayton Watson</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Vice-Chair</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Marty Baker</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Emmitt Beall</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Eliezer Bonilla</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Patricia Carroll</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Ishmael Charles</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Robert Daugherty</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Hector Diaz</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Ashley Freer</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Bobby K Jones Ii</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Michael Knight</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Dennis Livingston</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Jerry Madden</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Kevin Mcglamery</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>James Mcintyre</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Byron Medlin</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>David Ramirez</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Jeff Robinson</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Matt Sharp</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Steve Smith</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Lee Storms</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Kelvin Tarukwasha</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Mark Williams</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Charles Paul Conn</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Chancellor</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mark Walker</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>President</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Chris Conine</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Vice President For Business &amp; Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Deborah Murray</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Provost</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Christopher Coulter</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Associate Professor English</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Sara Campbell</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Dean, School Of Nursing</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>William Estes</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Dean, College Of Education</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Paul Delaluz</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Chair, Dept Of Natural Sciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Lee University</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Jayson Vanhook</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>Vice President For Enrollment &amp; Marketing</t>
         </is>
